--- a/src/test/resources/NS4S/0100 HKST.xlsx
+++ b/src/test/resources/NS4S/0100 HKST.xlsx
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D57" activeCellId="1" sqref="D53:F53 D57:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,13 +464,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>3.38</v>
+        <v>4.59</v>
       </c>
       <c r="E2" s="2">
-        <v>4.29</v>
+        <v>3.12</v>
       </c>
       <c r="F2" s="2">
-        <v>4.1900000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,13 +478,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>4.66</v>
+        <v>5.47</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
       <c r="F3" s="2">
-        <v>4.96</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,13 +492,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>5.15</v>
+        <v>4.53</v>
       </c>
       <c r="E4" s="2">
-        <v>3.56</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="2">
-        <v>2.91</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,15 +507,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.3966666666666665</v>
+        <v>4.8633333333333333</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.9966666666666666</v>
+        <v>3.2866666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.0200000000000005</v>
+        <v>4.3233333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,13 +526,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.68</v>
+        <v>3.19</v>
       </c>
       <c r="F6" s="2">
-        <v>3.71</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,13 +540,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4.74</v>
+        <v>5.03</v>
       </c>
       <c r="F7" s="2">
-        <v>4.6100000000000003</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,13 +554,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="E8" s="2">
-        <v>5.24</v>
+        <v>4.33</v>
       </c>
       <c r="F8" s="2">
-        <v>5.59</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,15 +569,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>3.2533333333333339</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>4.5533333333333337</v>
+        <v>4.1833333333333336</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.6366666666666667</v>
+        <v>3.9066666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,13 +591,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>4.3099999999999996</v>
+        <v>5.35</v>
       </c>
       <c r="E10" s="2">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="F10" s="2">
-        <v>3.62</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,13 +605,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>3.32</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>4.4400000000000004</v>
+        <v>5.55</v>
       </c>
       <c r="F11" s="2">
-        <v>3.83</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,13 +619,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>3.31</v>
       </c>
       <c r="F12" s="2">
-        <v>3.3</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,15 +634,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>3.4766666666666666</v>
+        <v>4.4633333333333338</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.2933333333333339</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>3.5833333333333335</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>5.45</v>
+        <v>4.62</v>
       </c>
       <c r="E14" s="2">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="F14" s="2">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="E15" s="2">
-        <v>4.91</v>
+        <v>3.78</v>
       </c>
       <c r="F15" s="2">
-        <v>2.98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>3.51</v>
+        <v>5.74</v>
       </c>
       <c r="E16" s="2">
-        <v>5.48</v>
+        <v>5.82</v>
       </c>
       <c r="F16" s="2">
-        <v>5.71</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,15 +696,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.13</v>
+        <v>4.8133333333333335</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>5.3166666666666664</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.1566666666666663</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,13 +718,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>5.67</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>5.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F18" s="2">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,13 +732,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>3.49</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7</v>
+        <v>2.85</v>
       </c>
       <c r="F19" s="2">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,13 +746,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>5.12</v>
+        <v>3.66</v>
       </c>
       <c r="E20" s="2">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="F20" s="2">
-        <v>4.87</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,15 +761,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.7600000000000007</v>
+        <v>4.2766666666666664</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>4.8500000000000005</v>
+        <v>3.6300000000000003</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.4766666666666666</v>
+        <v>5.5799999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,13 +780,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>5.58</v>
+        <v>2.85</v>
       </c>
       <c r="E22" s="2">
-        <v>5.42</v>
+        <v>4.01</v>
       </c>
       <c r="F22" s="2">
-        <v>2.92</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,13 +794,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>4.9400000000000004</v>
+        <v>2.83</v>
       </c>
       <c r="E23" s="2">
-        <v>2.6</v>
+        <v>5.01</v>
       </c>
       <c r="F23" s="2">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,13 +808,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.66</v>
+        <v>4.95</v>
       </c>
       <c r="E24" s="2">
-        <v>5.63</v>
+        <v>5.3</v>
       </c>
       <c r="F24" s="2">
-        <v>2.92</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,15 +823,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>5.0599999999999996</v>
+        <v>3.543333333333333</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.55</v>
+        <v>4.7733333333333334</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>3.3633333333333333</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>5.13</v>
+        <v>4.99</v>
       </c>
       <c r="E26" s="2">
-        <v>4.55</v>
+        <v>5.23</v>
       </c>
       <c r="F26" s="2">
-        <v>4.49</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>3.68</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E27" s="2">
-        <v>2.97</v>
+        <v>5.07</v>
       </c>
       <c r="F27" s="2">
-        <v>5.53</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>3.31</v>
+        <v>3.89</v>
       </c>
       <c r="E28" s="2">
-        <v>4.84</v>
+        <v>3.45</v>
       </c>
       <c r="F28" s="2">
-        <v>5.48</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,15 +888,15 @@
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(D26:D28)</f>
-        <v>4.04</v>
+        <v>4.5933333333333337</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(E26:E28)</f>
-        <v>4.12</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="F29" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>5.166666666666667</v>
+        <v>3.9499999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -907,13 +907,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.18</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E30" s="2">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="F30" s="2">
-        <v>2.65</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,13 +921,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>4.79</v>
+        <v>5.17</v>
       </c>
       <c r="E31" s="2">
-        <v>3.44</v>
+        <v>3.92</v>
       </c>
       <c r="F31" s="2">
-        <v>5.28</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="E32" s="2">
-        <v>4.37</v>
+        <v>5.12</v>
       </c>
       <c r="F32" s="2">
-        <v>5.45</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,15 +950,15 @@
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(D30:D32)</f>
-        <v>4.1899999999999995</v>
+        <v>4.59</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E30:E32)</f>
-        <v>3.6633333333333336</v>
+        <v>4.0166666666666666</v>
       </c>
       <c r="F33" s="1">
         <f>AVERAGE(F30:F32)</f>
-        <v>4.46</v>
+        <v>4.0466666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="2">
-        <v>2.85</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E34" s="2">
-        <v>2.62</v>
+        <v>3.74</v>
       </c>
       <c r="F34" s="2">
-        <v>4.12</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,13 +986,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>4.83</v>
+        <v>5.14</v>
       </c>
       <c r="E35" s="2">
-        <v>4.34</v>
+        <v>5.38</v>
       </c>
       <c r="F35" s="2">
-        <v>4.0599999999999996</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,13 +1000,13 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>3.24</v>
+        <v>4.32</v>
       </c>
       <c r="E36" s="2">
-        <v>5.28</v>
+        <v>3.9</v>
       </c>
       <c r="F36" s="2">
-        <v>3.78</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="D37" s="1">
         <f>AVERAGE(D34:D36)</f>
-        <v>3.64</v>
+        <v>4.59</v>
       </c>
       <c r="E37" s="1">
         <f>AVERAGE(E34:E36)</f>
-        <v>4.08</v>
+        <v>4.3400000000000007</v>
       </c>
       <c r="F37" s="1">
         <f>AVERAGE(F34:F36)</f>
-        <v>3.9866666666666664</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,13 +1034,13 @@
         <v>8</v>
       </c>
       <c r="D38" s="2">
-        <v>3.61</v>
+        <v>5.78</v>
       </c>
       <c r="E38" s="2">
-        <v>5.12</v>
+        <v>3.2</v>
       </c>
       <c r="F38" s="2">
-        <v>2.73</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,13 +1048,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="E39" s="2">
-        <v>5.86</v>
+        <v>4.87</v>
       </c>
       <c r="F39" s="2">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,13 +1062,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="E40" s="2">
-        <v>2.97</v>
+        <v>5.53</v>
       </c>
       <c r="F40" s="2">
-        <v>3.21</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,15 +1077,15 @@
       </c>
       <c r="D41" s="1">
         <f>AVERAGE(D38:D40)</f>
-        <v>3.3633333333333333</v>
+        <v>4.04</v>
       </c>
       <c r="E41" s="1">
         <f>AVERAGE(E38:E40)</f>
-        <v>4.6500000000000004</v>
+        <v>4.5333333333333341</v>
       </c>
       <c r="F41" s="1">
         <f>AVERAGE(F38:F40)</f>
-        <v>3.1033333333333331</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="D42" s="2">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2">
-        <v>5.42</v>
+        <v>5.04</v>
       </c>
       <c r="F42" s="2">
-        <v>5.43</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="D43" s="2">
-        <v>5.68</v>
+        <v>4.47</v>
       </c>
       <c r="E43" s="2">
-        <v>4.43</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F43" s="2">
-        <v>4.25</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,13 +1127,13 @@
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>5.36</v>
+        <v>2.85</v>
       </c>
       <c r="E44" s="2">
-        <v>4.09</v>
+        <v>5.46</v>
       </c>
       <c r="F44" s="2">
-        <v>4.88</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,15 +1142,15 @@
       </c>
       <c r="D45" s="1">
         <f>AVERAGE(D42:D44)</f>
-        <v>5.0233333333333334</v>
+        <v>3.773333333333333</v>
       </c>
       <c r="E45" s="1">
         <f>AVERAGE(E42:E44)</f>
-        <v>4.6466666666666665</v>
+        <v>4.8533333333333326</v>
       </c>
       <c r="F45" s="1">
         <f>AVERAGE(F42:F44)</f>
-        <v>4.8533333333333326</v>
+        <v>4.7333333333333334</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,13 +1161,13 @@
         <v>8</v>
       </c>
       <c r="D46" s="2">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
       <c r="E46" s="2">
-        <v>4.54</v>
+        <v>4.93</v>
       </c>
       <c r="F46" s="2">
-        <v>3.91</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,13 +1175,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="2">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2">
-        <v>2.61</v>
+        <v>5.47</v>
       </c>
       <c r="F47" s="2">
-        <v>4.6900000000000004</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,13 +1189,13 @@
         <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>4.29</v>
+        <v>3.08</v>
       </c>
       <c r="E48" s="2">
-        <v>5.96</v>
+        <v>2.6</v>
       </c>
       <c r="F48" s="2">
-        <v>2.72</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,15 +1204,15 @@
       </c>
       <c r="D49" s="1">
         <f>AVERAGE(D46:D48)</f>
-        <v>4.2233333333333327</v>
+        <v>3.2266666666666666</v>
       </c>
       <c r="E49" s="1">
         <f>AVERAGE(E46:E48)</f>
-        <v>4.37</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F49" s="1">
         <f>AVERAGE(F46:F48)</f>
-        <v>3.7733333333333339</v>
+        <v>4.1866666666666665</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="D50" s="2">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="E50" s="2">
-        <v>5.7</v>
+        <v>4.83</v>
       </c>
       <c r="F50" s="2">
-        <v>5.03</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1240,13 +1240,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="2">
-        <v>5.23</v>
+        <v>3.15</v>
       </c>
       <c r="E51" s="2">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="F51" s="2">
-        <v>3.91</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,13 +1254,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="2">
-        <v>4.18</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="E52" s="2">
-        <v>5.15</v>
+        <v>4.93</v>
       </c>
       <c r="F52" s="2">
-        <v>4.3600000000000003</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,15 +1269,15 @@
       </c>
       <c r="D53" s="1">
         <f>AVERAGE(D50:D52)</f>
-        <v>4.3866666666666667</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="E53" s="1">
         <f>AVERAGE(E50:E52)</f>
-        <v>5.1166666666666663</v>
+        <v>4.1533333333333333</v>
       </c>
       <c r="F53" s="1">
         <f>AVERAGE(F50:F52)</f>
-        <v>4.4333333333333336</v>
+        <v>4.4866666666666672</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="2">
-        <v>3.23</v>
+        <v>2.63</v>
       </c>
       <c r="E54" s="2">
-        <v>4.32</v>
+        <v>5.46</v>
       </c>
       <c r="F54" s="2">
-        <v>5.97</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>4.9800000000000004</v>
+        <v>5.41</v>
       </c>
       <c r="E55" s="2">
-        <v>5.94</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F55" s="2">
-        <v>4.26</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,13 +1316,13 @@
         <v>10</v>
       </c>
       <c r="D56" s="2">
-        <v>4.75</v>
+        <v>2.91</v>
       </c>
       <c r="E56" s="2">
-        <v>5.45</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F56" s="2">
-        <v>3.04</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,15 +1331,15 @@
       </c>
       <c r="D57" s="1">
         <f>AVERAGE(D54:D56)</f>
-        <v>4.32</v>
+        <v>3.65</v>
       </c>
       <c r="E57" s="1">
         <f>AVERAGE(E54:E56)</f>
-        <v>5.2366666666666672</v>
+        <v>4.6133333333333333</v>
       </c>
       <c r="F57" s="1">
         <f>AVERAGE(F54:F56)</f>
-        <v>4.4233333333333329</v>
+        <v>3.9733333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/0100 HKST.xlsx
+++ b/src/test/resources/NS4S/0100 HKST.xlsx
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D57" sqref="D57:F57"/>
     </sheetView>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.59</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="2">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="F2" s="2">
-        <v>5.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,13 +478,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>5.47</v>
+        <v>2.91</v>
       </c>
       <c r="E3" s="2">
-        <v>4.07</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="2">
-        <v>3.84</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,13 +492,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E4" s="2">
-        <v>2.67</v>
+        <v>5.86</v>
       </c>
       <c r="F4" s="2">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,15 +507,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.8633333333333333</v>
+        <v>3.74</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.2866666666666666</v>
+        <v>4.7266666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.3233333333333333</v>
+        <v>2.9366666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,13 +591,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>5.35</v>
+        <v>3.91</v>
       </c>
       <c r="E10" s="2">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="F10" s="2">
-        <v>2.77</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,13 +605,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.35</v>
       </c>
       <c r="E11" s="2">
-        <v>5.55</v>
+        <v>5.19</v>
       </c>
       <c r="F11" s="2">
-        <v>5.57</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,13 +619,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>3.18</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E12" s="2">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="F12" s="2">
-        <v>4.92</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,15 +634,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>4.4633333333333338</v>
+        <v>4.79</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.3666666666666663</v>
+        <v>4.4233333333333338</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>4.42</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>4.62</v>
+        <v>5.16</v>
       </c>
       <c r="E14" s="2">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="F14" s="2">
-        <v>3.81</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>4.08</v>
+        <v>5.71</v>
       </c>
       <c r="E15" s="2">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>5.74</v>
+        <v>4.33</v>
       </c>
       <c r="E16" s="2">
-        <v>5.82</v>
+        <v>2.89</v>
       </c>
       <c r="F16" s="2">
-        <v>5.07</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,15 +696,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.8133333333333335</v>
+        <v>5.0666666666666673</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>4.4333333333333336</v>
+        <v>3.25</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.96</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,13 +718,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.97</v>
       </c>
       <c r="E18" s="2">
-        <v>4.1500000000000004</v>
+        <v>5.66</v>
       </c>
       <c r="F18" s="2">
-        <v>5.85</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,13 +732,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>4.3099999999999996</v>
+        <v>3.41</v>
       </c>
       <c r="E19" s="2">
-        <v>2.85</v>
+        <v>5.55</v>
       </c>
       <c r="F19" s="2">
-        <v>5.69</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,13 +746,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>3.66</v>
+        <v>2.72</v>
       </c>
       <c r="E20" s="2">
-        <v>3.89</v>
+        <v>4.5</v>
       </c>
       <c r="F20" s="2">
-        <v>5.2</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,15 +761,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.2766666666666664</v>
+        <v>4.0333333333333332</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>3.6300000000000003</v>
+        <v>5.2366666666666672</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.5799999999999992</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,13 +780,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>2.85</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="2">
-        <v>4.01</v>
+        <v>4.21</v>
       </c>
       <c r="F22" s="2">
-        <v>5.0199999999999996</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,13 +794,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>5.01</v>
+        <v>3.79</v>
       </c>
       <c r="F23" s="2">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,13 +808,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.95</v>
+        <v>3.44</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3</v>
+        <v>4.79</v>
       </c>
       <c r="F24" s="2">
-        <v>4.59</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,15 +823,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>3.543333333333333</v>
+        <v>3.8966666666666665</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.7733333333333334</v>
+        <v>4.2633333333333328</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>4.5599999999999996</v>
+        <v>3.7633333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>4.99</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="E26" s="2">
-        <v>5.23</v>
+        <v>3.28</v>
       </c>
       <c r="F26" s="2">
-        <v>3.32</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>4.9000000000000004</v>
+        <v>2.96</v>
       </c>
       <c r="E27" s="2">
-        <v>5.07</v>
+        <v>3.99</v>
       </c>
       <c r="F27" s="2">
-        <v>3.61</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="E28" s="2">
-        <v>3.45</v>
+        <v>5.05</v>
       </c>
       <c r="F28" s="2">
-        <v>4.92</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,15 +888,15 @@
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(D26:D28)</f>
-        <v>4.5933333333333337</v>
+        <v>3.69</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(E26:E28)</f>
-        <v>4.583333333333333</v>
+        <v>4.1066666666666665</v>
       </c>
       <c r="F29" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>3.9499999999999997</v>
+        <v>3.8933333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -907,13 +907,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.2699999999999996</v>
+        <v>5.33</v>
       </c>
       <c r="E30" s="2">
-        <v>3.01</v>
+        <v>5.66</v>
       </c>
       <c r="F30" s="2">
-        <v>3.48</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,13 +921,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>5.17</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E31" s="2">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="F31" s="2">
-        <v>4.6900000000000004</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>4.33</v>
+        <v>5.34</v>
       </c>
       <c r="E32" s="2">
         <v>5.12</v>
       </c>
       <c r="F32" s="2">
-        <v>3.97</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,15 +950,15 @@
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(D30:D32)</f>
-        <v>4.59</v>
+        <v>5.16</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E30:E32)</f>
-        <v>4.0166666666666666</v>
+        <v>4.9066666666666663</v>
       </c>
       <c r="F33" s="1">
         <f>AVERAGE(F30:F32)</f>
-        <v>4.0466666666666669</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="2">
-        <v>4.3099999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="E34" s="2">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="F34" s="2">
-        <v>4.7</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,13 +986,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>5.14</v>
+        <v>3.11</v>
       </c>
       <c r="E35" s="2">
-        <v>5.38</v>
+        <v>3.33</v>
       </c>
       <c r="F35" s="2">
-        <v>2.91</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,13 +1000,13 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>4.32</v>
+        <v>5.45</v>
       </c>
       <c r="E36" s="2">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="F36" s="2">
-        <v>3.97</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="D37" s="1">
         <f>AVERAGE(D34:D36)</f>
-        <v>4.59</v>
+        <v>4.2033333333333331</v>
       </c>
       <c r="E37" s="1">
         <f>AVERAGE(E34:E36)</f>
-        <v>4.3400000000000007</v>
+        <v>3.5533333333333332</v>
       </c>
       <c r="F37" s="1">
         <f>AVERAGE(F34:F36)</f>
-        <v>3.86</v>
+        <v>3.4533333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,13 +1034,13 @@
         <v>8</v>
       </c>
       <c r="D38" s="2">
-        <v>5.78</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2">
-        <v>3.2</v>
+        <v>5.05</v>
       </c>
       <c r="F38" s="2">
-        <v>5.96</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,13 +1048,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>3.4</v>
+        <v>4.97</v>
       </c>
       <c r="E39" s="2">
-        <v>4.87</v>
+        <v>2.74</v>
       </c>
       <c r="F39" s="2">
-        <v>3.11</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,13 +1062,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>2.94</v>
+        <v>3.48</v>
       </c>
       <c r="E40" s="2">
-        <v>5.53</v>
+        <v>3.14</v>
       </c>
       <c r="F40" s="2">
-        <v>3.83</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,15 +1077,15 @@
       </c>
       <c r="D41" s="1">
         <f>AVERAGE(D38:D40)</f>
-        <v>4.04</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="E41" s="1">
         <f>AVERAGE(E38:E40)</f>
-        <v>4.5333333333333341</v>
+        <v>3.6433333333333331</v>
       </c>
       <c r="F41" s="1">
         <f>AVERAGE(F38:F40)</f>
-        <v>4.3</v>
+        <v>4.6000000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="D42" s="2">
-        <v>4</v>
+        <v>4.66</v>
       </c>
       <c r="E42" s="2">
-        <v>5.04</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F42" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="D43" s="2">
-        <v>4.47</v>
+        <v>5.15</v>
       </c>
       <c r="E43" s="2">
-        <v>4.0599999999999996</v>
+        <v>3.56</v>
       </c>
       <c r="F43" s="2">
-        <v>4.1500000000000004</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,13 +1127,13 @@
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>2.85</v>
+        <v>3.7</v>
       </c>
       <c r="E44" s="2">
-        <v>5.46</v>
+        <v>3.68</v>
       </c>
       <c r="F44" s="2">
-        <v>5.45</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,15 +1142,15 @@
       </c>
       <c r="D45" s="1">
         <f>AVERAGE(D42:D44)</f>
-        <v>3.773333333333333</v>
+        <v>4.5033333333333339</v>
       </c>
       <c r="E45" s="1">
         <f>AVERAGE(E42:E44)</f>
-        <v>4.8533333333333326</v>
+        <v>3.793333333333333</v>
       </c>
       <c r="F45" s="1">
         <f>AVERAGE(F42:F44)</f>
-        <v>4.7333333333333334</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,13 +1161,13 @@
         <v>8</v>
       </c>
       <c r="D46" s="2">
-        <v>3.6</v>
+        <v>2.77</v>
       </c>
       <c r="E46" s="2">
-        <v>4.93</v>
+        <v>4.74</v>
       </c>
       <c r="F46" s="2">
-        <v>4.49</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,13 +1175,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="2">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="E47" s="2">
-        <v>5.47</v>
+        <v>5.24</v>
       </c>
       <c r="F47" s="2">
-        <v>3.52</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,13 +1189,13 @@
         <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="E48" s="2">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="F48" s="2">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,15 +1204,15 @@
       </c>
       <c r="D49" s="1">
         <f>AVERAGE(D46:D48)</f>
-        <v>3.2266666666666666</v>
+        <v>3.0433333333333334</v>
       </c>
       <c r="E49" s="1">
         <f>AVERAGE(E46:E48)</f>
-        <v>4.333333333333333</v>
+        <v>4.46</v>
       </c>
       <c r="F49" s="1">
         <f>AVERAGE(F46:F48)</f>
-        <v>4.1866666666666665</v>
+        <v>4.5333333333333332</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="D50" s="2">
-        <v>3.41</v>
+        <v>2.8</v>
       </c>
       <c r="E50" s="2">
-        <v>4.83</v>
+        <v>5.7</v>
       </c>
       <c r="F50" s="2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1240,13 +1240,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="2">
-        <v>3.15</v>
+        <v>5.45</v>
       </c>
       <c r="E51" s="2">
-        <v>2.7</v>
+        <v>5.56</v>
       </c>
       <c r="F51" s="2">
-        <v>4.58</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,13 +1254,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="2">
-        <v>4.6399999999999997</v>
+        <v>3.43</v>
       </c>
       <c r="E52" s="2">
-        <v>4.93</v>
+        <v>4.91</v>
       </c>
       <c r="F52" s="2">
-        <v>5.78</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,15 +1269,15 @@
       </c>
       <c r="D53" s="1">
         <f>AVERAGE(D50:D52)</f>
-        <v>3.7333333333333329</v>
+        <v>3.8933333333333331</v>
       </c>
       <c r="E53" s="1">
         <f>AVERAGE(E50:E52)</f>
-        <v>4.1533333333333333</v>
+        <v>5.3900000000000006</v>
       </c>
       <c r="F53" s="1">
         <f>AVERAGE(F50:F52)</f>
-        <v>4.4866666666666672</v>
+        <v>3.3533333333333335</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="2">
-        <v>2.63</v>
+        <v>3.51</v>
       </c>
       <c r="E54" s="2">
-        <v>5.46</v>
+        <v>5.48</v>
       </c>
       <c r="F54" s="2">
-        <v>3.47</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>5.41</v>
+        <v>3.66</v>
       </c>
       <c r="E55" s="2">
-        <v>4.3600000000000003</v>
+        <v>4</v>
       </c>
       <c r="F55" s="2">
-        <v>4.45</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,13 +1316,13 @@
         <v>10</v>
       </c>
       <c r="D56" s="2">
-        <v>2.91</v>
+        <v>5.96</v>
       </c>
       <c r="E56" s="2">
-        <v>4.0199999999999996</v>
+        <v>4.53</v>
       </c>
       <c r="F56" s="2">
-        <v>4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,18 +1331,19 @@
       </c>
       <c r="D57" s="1">
         <f>AVERAGE(D54:D56)</f>
-        <v>3.65</v>
+        <v>4.376666666666666</v>
       </c>
       <c r="E57" s="1">
         <f>AVERAGE(E54:E56)</f>
-        <v>4.6133333333333333</v>
+        <v>4.6700000000000008</v>
       </c>
       <c r="F57" s="1">
         <f>AVERAGE(F54:F56)</f>
-        <v>3.9733333333333332</v>
+        <v>3.9866666666666668</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>